--- a/Data/confirmed_cases.xlsx
+++ b/Data/confirmed_cases.xlsx
@@ -2217,7 +2217,7 @@
         <v>16</v>
       </c>
       <c r="F77">
-        <v>0.5193159233102807</v>
+        <v>0.5193159233102806</v>
       </c>
     </row>
     <row r="78">
@@ -3321,7 +3321,7 @@
         <v>60</v>
       </c>
       <c r="F123">
-        <v>1.947434712413553</v>
+        <v>1.947434712413552</v>
       </c>
     </row>
     <row r="124">
@@ -3873,7 +3873,7 @@
         <v>140</v>
       </c>
       <c r="F146">
-        <v>4.544014328964956</v>
+        <v>4.544014328964955</v>
       </c>
     </row>
     <row r="147">
@@ -7329,7 +7329,7 @@
         <v>35</v>
       </c>
       <c r="F290">
-        <v>15.52708922530916</v>
+        <v>15.52708922530915</v>
       </c>
     </row>
     <row r="291">
@@ -7353,7 +7353,7 @@
         <v>35</v>
       </c>
       <c r="F291">
-        <v>15.52708922530916</v>
+        <v>15.52708922530915</v>
       </c>
     </row>
     <row r="292">
@@ -7377,7 +7377,7 @@
         <v>35</v>
       </c>
       <c r="F292">
-        <v>15.52708922530916</v>
+        <v>15.52708922530915</v>
       </c>
     </row>
     <row r="293">
@@ -7401,7 +7401,7 @@
         <v>35</v>
       </c>
       <c r="F293">
-        <v>15.52708922530916</v>
+        <v>15.52708922530915</v>
       </c>
     </row>
     <row r="294">
@@ -7425,7 +7425,7 @@
         <v>35</v>
       </c>
       <c r="F294">
-        <v>15.52708922530916</v>
+        <v>15.52708922530915</v>
       </c>
     </row>
     <row r="295">
@@ -7449,7 +7449,7 @@
         <v>35</v>
       </c>
       <c r="F295">
-        <v>15.52708922530916</v>
+        <v>15.52708922530915</v>
       </c>
     </row>
     <row r="296">
@@ -7473,7 +7473,7 @@
         <v>35</v>
       </c>
       <c r="F296">
-        <v>15.52708922530916</v>
+        <v>15.52708922530915</v>
       </c>
     </row>
     <row r="297">
@@ -7497,7 +7497,7 @@
         <v>35</v>
       </c>
       <c r="F297">
-        <v>15.52708922530916</v>
+        <v>15.52708922530915</v>
       </c>
     </row>
     <row r="298">
@@ -8217,7 +8217,7 @@
         <v>227</v>
       </c>
       <c r="F327">
-        <v>100.704264404148</v>
+        <v>100.7042644041479</v>
       </c>
     </row>
     <row r="328">
@@ -8241,7 +8241,7 @@
         <v>227</v>
       </c>
       <c r="F328">
-        <v>100.704264404148</v>
+        <v>100.7042644041479</v>
       </c>
     </row>
     <row r="329">
@@ -8265,7 +8265,7 @@
         <v>227</v>
       </c>
       <c r="F329">
-        <v>100.704264404148</v>
+        <v>100.7042644041479</v>
       </c>
     </row>
     <row r="330">
@@ -11961,7 +11961,7 @@
         <v>635</v>
       </c>
       <c r="F483">
-        <v>558.8844139018758</v>
+        <v>558.8844139018757</v>
       </c>
     </row>
     <row r="484">
@@ -18225,7 +18225,7 @@
         <v>16</v>
       </c>
       <c r="F744">
-        <v>0.8818675087766486</v>
+        <v>0.8818675087766485</v>
       </c>
     </row>
     <row r="745">
@@ -18249,7 +18249,7 @@
         <v>16</v>
       </c>
       <c r="F745">
-        <v>0.8818675087766486</v>
+        <v>0.8818675087766485</v>
       </c>
     </row>
     <row r="746">
@@ -18273,7 +18273,7 @@
         <v>16</v>
       </c>
       <c r="F746">
-        <v>0.8818675087766486</v>
+        <v>0.8818675087766485</v>
       </c>
     </row>
     <row r="747">
@@ -18297,7 +18297,7 @@
         <v>16</v>
       </c>
       <c r="F747">
-        <v>0.8818675087766486</v>
+        <v>0.8818675087766485</v>
       </c>
     </row>
     <row r="748">
@@ -23025,7 +23025,7 @@
         <v>145</v>
       </c>
       <c r="F944">
-        <v>4.915927136060184</v>
+        <v>4.915927136060183</v>
       </c>
     </row>
     <row r="945">
@@ -23457,7 +23457,7 @@
         <v>354</v>
       </c>
       <c r="F962">
-        <v>12.00164280114004</v>
+        <v>12.00164280114003</v>
       </c>
     </row>
     <row r="963">
@@ -23865,7 +23865,7 @@
         <v>737</v>
       </c>
       <c r="F979">
-        <v>24.98647102949211</v>
+        <v>24.9864710294921</v>
       </c>
     </row>
     <row r="980">
@@ -24009,7 +24009,7 @@
         <v>859</v>
       </c>
       <c r="F985">
-        <v>29.12263041293585</v>
+        <v>29.12263041293584</v>
       </c>
     </row>
     <row r="986">
@@ -27705,7 +27705,7 @@
         <v>36</v>
       </c>
       <c r="F1139">
-        <v>14.7043506497485</v>
+        <v>14.70435064974849</v>
       </c>
     </row>
     <row r="1140">
@@ -29601,7 +29601,7 @@
         <v>402</v>
       </c>
       <c r="F1218">
-        <v>6.957470230594447</v>
+        <v>6.957470230594446</v>
       </c>
     </row>
     <row r="1219">
@@ -30009,7 +30009,7 @@
         <v>1934</v>
       </c>
       <c r="F1235">
-        <v>33.47200852231259</v>
+        <v>33.47200852231258</v>
       </c>
     </row>
     <row r="1236">
@@ -30537,7 +30537,7 @@
         <v>5951</v>
       </c>
       <c r="F1257">
-        <v>102.9947894086258</v>
+        <v>102.9947894086257</v>
       </c>
     </row>
     <row r="1258">
@@ -31281,7 +31281,7 @@
         <v>34357</v>
       </c>
       <c r="F1288">
-        <v>594.6214047575458</v>
+        <v>594.6214047575457</v>
       </c>
     </row>
     <row r="1289">
@@ -33441,7 +33441,7 @@
         <v>2</v>
       </c>
       <c r="F1378">
-        <v>0.115261671079844</v>
+        <v>0.1152616710798439</v>
       </c>
     </row>
     <row r="1379">
@@ -33465,7 +33465,7 @@
         <v>2</v>
       </c>
       <c r="F1379">
-        <v>0.115261671079844</v>
+        <v>0.1152616710798439</v>
       </c>
     </row>
     <row r="1380">
@@ -33489,7 +33489,7 @@
         <v>2</v>
       </c>
       <c r="F1380">
-        <v>0.115261671079844</v>
+        <v>0.1152616710798439</v>
       </c>
     </row>
     <row r="1381">
@@ -33513,7 +33513,7 @@
         <v>2</v>
       </c>
       <c r="F1381">
-        <v>0.115261671079844</v>
+        <v>0.1152616710798439</v>
       </c>
     </row>
     <row r="1382">
@@ -34161,7 +34161,7 @@
         <v>52</v>
       </c>
       <c r="F1408">
-        <v>2.996803448075943</v>
+        <v>2.996803448075942</v>
       </c>
     </row>
     <row r="1409">
@@ -34521,7 +34521,7 @@
         <v>119</v>
       </c>
       <c r="F1423">
-        <v>6.858069429250715</v>
+        <v>6.858069429250714</v>
       </c>
     </row>
     <row r="1424">
@@ -35649,7 +35649,7 @@
         <v>1416</v>
       </c>
       <c r="F1470">
-        <v>81.60526312452952</v>
+        <v>81.60526312452951</v>
       </c>
     </row>
     <row r="1471">
@@ -35913,7 +35913,7 @@
         <v>1568</v>
       </c>
       <c r="F1481">
-        <v>90.36515012659766</v>
+        <v>90.36515012659765</v>
       </c>
     </row>
     <row r="1482">
@@ -38481,7 +38481,7 @@
         <v>34</v>
       </c>
       <c r="F1588">
-        <v>2.3547307718572</v>
+        <v>2.354730771857199</v>
       </c>
     </row>
     <row r="1589">
@@ -38505,7 +38505,7 @@
         <v>34</v>
       </c>
       <c r="F1589">
-        <v>2.3547307718572</v>
+        <v>2.354730771857199</v>
       </c>
     </row>
     <row r="1590">
@@ -38529,7 +38529,7 @@
         <v>34</v>
       </c>
       <c r="F1590">
-        <v>2.3547307718572</v>
+        <v>2.354730771857199</v>
       </c>
     </row>
     <row r="1591">
@@ -38553,7 +38553,7 @@
         <v>34</v>
       </c>
       <c r="F1591">
-        <v>2.3547307718572</v>
+        <v>2.354730771857199</v>
       </c>
     </row>
     <row r="1592">
@@ -38577,7 +38577,7 @@
         <v>34</v>
       </c>
       <c r="F1592">
-        <v>2.3547307718572</v>
+        <v>2.354730771857199</v>
       </c>
     </row>
     <row r="1593">
@@ -38601,7 +38601,7 @@
         <v>34</v>
       </c>
       <c r="F1593">
-        <v>2.3547307718572</v>
+        <v>2.354730771857199</v>
       </c>
     </row>
     <row r="1594">
@@ -38625,7 +38625,7 @@
         <v>34</v>
       </c>
       <c r="F1594">
-        <v>2.3547307718572</v>
+        <v>2.354730771857199</v>
       </c>
     </row>
     <row r="1595">
@@ -39777,7 +39777,7 @@
         <v>551</v>
       </c>
       <c r="F1642">
-        <v>38.16048986156815</v>
+        <v>38.16048986156814</v>
       </c>
     </row>
     <row r="1643">
@@ -39801,7 +39801,7 @@
         <v>561</v>
       </c>
       <c r="F1643">
-        <v>38.8530577356438</v>
+        <v>38.85305773564379</v>
       </c>
     </row>
     <row r="1644">
@@ -39969,7 +39969,7 @@
         <v>625</v>
       </c>
       <c r="F1650">
-        <v>43.28549212972794</v>
+        <v>43.28549212972793</v>
       </c>
     </row>
     <row r="1651">
